--- a/src/main/resources/testdata/loginpage.xlsx
+++ b/src/main/resources/testdata/loginpage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijProjects\NopCommerce_dec9am\src\main\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECLIPSE PROJECTS\PAPARAO\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92789475-0168-4614-9F1C-96B51F23EFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85B2925-1706-4394-B9B6-7B250FDBF7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>email</t>
   </si>
@@ -37,15 +37,6 @@
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>xyz@yourstore.com</t>
-  </si>
-  <si>
-    <t>yzz@yourstore.com</t>
-  </si>
-  <si>
-    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -374,15 +365,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -449,28 +441,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{EA417A17-7837-43E7-8CD2-5D8E76CE22C3}"/>
-    <hyperlink ref="A3:A10" r:id="rId2" display="admin@yourstore.com" xr:uid="{1C853A9C-086C-4ABE-9C58-6D4357907857}"/>
-    <hyperlink ref="A10" r:id="rId3" xr:uid="{47BF9771-A2B2-444C-A083-8B52CFC6C9F8}"/>
-    <hyperlink ref="A9" r:id="rId4" xr:uid="{4EC1B1C4-7A1C-4C46-B480-E9312561E69D}"/>
+    <hyperlink ref="A3:A8" r:id="rId2" display="admin@yourstore.com" xr:uid="{1C853A9C-086C-4ABE-9C58-6D4357907857}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
